--- a/medicine/Sexualité et sexologie/Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique)/Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique).xlsx
+++ b/medicine/Sexualité et sexologie/Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique)/Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_de_la_visibilit%C3%A9_Pan_(Pansexuel_et_Panromantique)</t>
+          <t>Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La journée de la visibilité Pan (pour pansexuel et panromantique) (en anglais : Pansexual and Panromantic Awareness and Visiblity Day est un événement annuel ayant lieu le 24 mai, célébré par la communauté pansexuelle et panromantique et ses sympathisants. Cette journée a pour objectif de sensibiliser sur les personnes d'orientation pansexuelle et panromantique, notamment sujets à un manque de considérations, de compréhension avec une confusion qui a souvent lieu avec la bisexualité. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_de_la_visibilit%C3%A9_Pan_(Pansexuel_et_Panromantique)</t>
+          <t>Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-La journée semble trouver ses origines dans un sujet posté sur la plateforme de microbloage Tumblr[1]. Cette journée est ainsi célébrée la première fois en 2015 - même si l'année 2014 semble également être une date reconnue dans la communauté[2]. Dans tous les cas, elle est à l'initiative de militantes et militants et de la communauté. 
-Diffusion
-La célébration est reprise les années suivantes par le biais de différentes plateformes et relais de la communauté Pan, comme en 2020[3], en 2023[4],[5], ou en 2024[6].
-En France, c'est le compte Instagram Le Coin des LGBT+ (@lecoindeslgbt) qui se fait le relais de cette célébration pour l'année 2024[7].
-Dans le monde hispanophone, ce sont les presses du Chili et de l'Argentine qui se font le relais de cette journée[8],[9].
-Pour l'édition de 2024, il est à noter que la ville de Snohomish (Washington) dans l'état de Washington choisit de célébrer cette journée[10].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La journée semble trouver ses origines dans un sujet posté sur la plateforme de microbloage Tumblr. Cette journée est ainsi célébrée la première fois en 2015 - même si l'année 2014 semble également être une date reconnue dans la communauté. Dans tous les cas, elle est à l'initiative de militantes et militants et de la communauté. 
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_de_la_visibilit%C3%A9_Pan_(Pansexuel_et_Panromantique)</t>
+          <t>Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +558,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La célébration est reprise les années suivantes par le biais de différentes plateformes et relais de la communauté Pan, comme en 2020, en 2023 ou en 2024.
+En France, c'est le compte Instagram Le Coin des LGBT+ (@lecoindeslgbt) qui se fait le relais de cette célébration pour l'année 2024.
+Dans le monde hispanophone, ce sont les presses du Chili et de l'Argentine qui se font le relais de cette journée,.
+Pour l'édition de 2024, il est à noter que la ville de Snohomish (Washington) dans l'état de Washington choisit de célébrer cette journée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Journée_de_la_visibilité_Pan_(Pansexuel_et_Panromantique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_de_la_visibilit%C3%A9_Pan_(Pansexuel_et_Panromantique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Autre journée de célébration Pan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe également une journée internationale de fierté Pan qui se déroule le 8 décembre[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe également une journée internationale de fierté Pan qui se déroule le 8 décembre.
 </t>
         </is>
       </c>
